--- a/베이스데이터.xlsx
+++ b/베이스데이터.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimhy\source\repos\InDuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C785CB-4141-4989-A557-31ADD1620B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505CE254-31CF-411B-ACEF-C0517A89DCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{329972C4-087D-415A-AE3C-13D627F3AD8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{329972C4-087D-415A-AE3C-13D627F3AD8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Card" sheetId="1" r:id="rId1"/>
-    <sheet name="CardText" sheetId="2" r:id="rId2"/>
-    <sheet name="GameEffect" sheetId="3" r:id="rId3"/>
+    <sheet name="Rule" sheetId="4" r:id="rId1"/>
+    <sheet name="Card" sheetId="1" r:id="rId2"/>
+    <sheet name="CardText" sheetId="2" r:id="rId3"/>
+    <sheet name="GameEffect" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +357,14 @@
   </si>
   <si>
     <t>덱이 0장일 때, 드로우하여 게임을 패배한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. CCG 형태의 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게임의 장르</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,6 +728,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B07A6CB-3D52-466D-9062-6DCEDFDF60B9}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="71.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88865AF6-FD57-4900-80BD-4D508B939499}">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -1439,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5BEF1B-A940-4BA6-A68A-9BBAD66F1719}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1585,11 +1622,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638647DA-CF37-48AF-B9C3-9DA6DC90E746}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
